--- a/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_2_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Element</t>
   </si>
@@ -89,24 +89,6 @@
   </si>
   <si>
     <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
-  </si>
-  <si>
-    <t>MFPP derivative [USD/MT]</t>
-  </si>
-  <si>
-    <t>Biodiesel production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Ethanol production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Electricity production derivative [kWhr/MT]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption derivative [cf/MT]</t>
-  </si>
-  <si>
-    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>GWP derivative [kg*CO2*eq / USD]</t>
@@ -626,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,30 +645,22 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,2259 +733,2240 @@
       <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.0702909802989098</v>
+        <v>0.04282751340684481</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01054165767833013</v>
       </c>
       <c r="E4">
-        <v>0.1108437419084374</v>
+        <v>0.05792046643572216</v>
       </c>
       <c r="F4">
-        <v>-0.02128587933285879</v>
+        <v>-0.07849710815058686</v>
       </c>
       <c r="G4">
-        <v>-0.02805655590339993</v>
-      </c>
-      <c r="H4">
-        <v>0.02238460550195446</v>
+        <v>-0.0231682144907487</v>
       </c>
       <c r="I4">
-        <v>-0.01851538204115382</v>
+        <v>-0.01895182974348102</v>
       </c>
       <c r="J4">
-        <v>0.003445266678637669</v>
+        <v>0.0319310292155953</v>
       </c>
       <c r="K4">
-        <v>0.0005059041050590411</v>
+        <v>0.01488766016412725</v>
       </c>
       <c r="L4">
-        <v>0.005599246351992463</v>
+        <v>-0.01249865790635718</v>
       </c>
       <c r="M4">
-        <v>0.0005059041050590411</v>
+        <v>0.01488766016412725</v>
       </c>
       <c r="N4">
-        <v>0.0005059041050590411</v>
+        <v>0.01488766016412725</v>
+      </c>
+      <c r="O4">
+        <v>0.01488766016412725</v>
       </c>
       <c r="P4">
-        <v>-0.04160444057604441</v>
+        <v>-0.05123250873620141</v>
       </c>
       <c r="Q4">
-        <v>-0.0009940366299403662</v>
+        <v>-0.01215000820812771</v>
       </c>
       <c r="R4">
-        <v>-0.0009940366299403662</v>
+        <v>-0.01215000820812771</v>
       </c>
       <c r="S4">
-        <v>-0.0009940366299403662</v>
+        <v>-0.01215000820812771</v>
       </c>
       <c r="T4">
-        <v>-0.0009940366299403662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>-0.01215000820812771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.03105552734255527</v>
+        <v>0.02849755805983633</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>-0.005716029905844114</v>
       </c>
       <c r="E5">
-        <v>0.04116158123161581</v>
+        <v>0.03255174036621949</v>
       </c>
       <c r="F5">
-        <v>-0.000216796694167967</v>
+        <v>-0.03954969190223837</v>
       </c>
       <c r="G5">
-        <v>-0.02685755265998015</v>
-      </c>
-      <c r="H5">
-        <v>0.01363261559723228</v>
+        <v>-0.04250809968764888</v>
       </c>
       <c r="I5">
-        <v>-0.008151991749519919</v>
+        <v>-0.02136543914152723</v>
       </c>
       <c r="J5">
-        <v>-0.01545158961395409</v>
+        <v>-0.01608947665405378</v>
       </c>
       <c r="K5">
-        <v>0.003904109439041094</v>
+        <v>-0.008493541505406647</v>
       </c>
       <c r="L5">
-        <v>0.004734966323349663</v>
+        <v>-0.02301588576132295</v>
       </c>
       <c r="M5">
-        <v>0.003904109439041094</v>
+        <v>-0.008493541505406647</v>
       </c>
       <c r="N5">
-        <v>0.003904109439041094</v>
+        <v>-0.008493541505406647</v>
+      </c>
+      <c r="O5">
+        <v>-0.008493541505406647</v>
       </c>
       <c r="P5">
-        <v>-0.00802884586428846</v>
+        <v>-0.02655085955988486</v>
       </c>
       <c r="Q5">
-        <v>0.006665306658653066</v>
+        <v>-0.01962427043557982</v>
       </c>
       <c r="R5">
-        <v>0.006665306658653066</v>
+        <v>-0.01962427043557982</v>
       </c>
       <c r="S5">
-        <v>0.006665306658653066</v>
+        <v>-0.01962427043557982</v>
       </c>
       <c r="T5">
-        <v>0.006665306658653066</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>-0.01962427043557982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0.2136045572280456</v>
+        <v>0.2030703368132593</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.01006341188085145</v>
       </c>
       <c r="E6">
-        <v>0.02284277276442773</v>
+        <v>0.01551163557494697</v>
       </c>
       <c r="F6">
-        <v>-0.01080765285607653</v>
+        <v>-0.003475285718908353</v>
       </c>
       <c r="G6">
-        <v>0.005277876675474181</v>
-      </c>
-      <c r="H6">
-        <v>-0.006811636307667267</v>
+        <v>0.03482235060483938</v>
       </c>
       <c r="I6">
-        <v>-0.4754807370388074</v>
+        <v>-0.452020079162025</v>
       </c>
       <c r="J6">
-        <v>0.001684286887909334</v>
+        <v>-0.02096484421552276</v>
       </c>
       <c r="K6">
-        <v>-0.02278071584380716</v>
+        <v>-0.01736932339947819</v>
       </c>
       <c r="L6">
-        <v>-0.02521433774414338</v>
+        <v>-0.02162445262222385</v>
       </c>
       <c r="M6">
-        <v>-0.02278071584380716</v>
+        <v>-0.01736932339947819</v>
       </c>
       <c r="N6">
-        <v>-0.02278071584380716</v>
+        <v>-0.01736932339947819</v>
+      </c>
+      <c r="O6">
+        <v>-0.01736932339947819</v>
       </c>
       <c r="P6">
-        <v>-0.01841563722415637</v>
+        <v>-0.01521210513519639</v>
       </c>
       <c r="Q6">
-        <v>-0.02359297331592973</v>
+        <v>-0.02243821313445763</v>
       </c>
       <c r="R6">
-        <v>-0.02359297331592973</v>
+        <v>-0.02243821313445763</v>
       </c>
       <c r="S6">
-        <v>-0.02359297331592973</v>
+        <v>-0.02243821313445763</v>
       </c>
       <c r="T6">
-        <v>-0.02359297331592973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>-0.02243821313445763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>0.1039402576514026</v>
+        <v>0.07454696732461027</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.005941929535230338</v>
       </c>
       <c r="E7">
-        <v>-0.02319805725998057</v>
+        <v>-0.007746430333889821</v>
       </c>
       <c r="F7">
-        <v>0.009553023275530231</v>
+        <v>-0.0006010427514290419</v>
       </c>
       <c r="G7">
-        <v>-0.008859434043369177</v>
-      </c>
-      <c r="H7">
-        <v>0.01391823341943814</v>
+        <v>0.03065821869842924</v>
       </c>
       <c r="I7">
-        <v>-0.1971441864754419</v>
+        <v>-0.210558426570571</v>
       </c>
       <c r="J7">
-        <v>-0.0193554451354481</v>
+        <v>-0.007350621657652519</v>
       </c>
       <c r="K7">
-        <v>0.01519034359990344</v>
+        <v>0.001833488790349574</v>
       </c>
       <c r="L7">
-        <v>0.01547040748670407</v>
+        <v>0.01542454847058394</v>
       </c>
       <c r="M7">
-        <v>0.01519034359990344</v>
+        <v>0.001833488790349574</v>
       </c>
       <c r="N7">
-        <v>0.01519034359990344</v>
+        <v>0.001833488790349574</v>
+      </c>
+      <c r="O7">
+        <v>0.001833488790349574</v>
       </c>
       <c r="P7">
-        <v>0.01716268271162683</v>
+        <v>0.005985051404606408</v>
       </c>
       <c r="Q7">
-        <v>0.01486661286466613</v>
+        <v>0.01145910983594045</v>
       </c>
       <c r="R7">
-        <v>0.01486661286466613</v>
+        <v>0.01145910983594045</v>
       </c>
       <c r="S7">
-        <v>0.01486661286466613</v>
+        <v>0.01145910983594045</v>
       </c>
       <c r="T7">
-        <v>0.01486661286466613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>0.01145910983594045</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.2424024383280244</v>
+        <v>0.229466705355037</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.003983141931831419</v>
+        <v>0.002007520227516131</v>
       </c>
       <c r="F8">
-        <v>-0.003016214130162142</v>
+        <v>0.025339567944188</v>
       </c>
       <c r="G8">
-        <v>-0.00106666656567926</v>
-      </c>
-      <c r="H8">
-        <v>-0.003516897527236502</v>
+        <v>-0.08451640413340999</v>
       </c>
       <c r="I8">
-        <v>0.7857953304219533</v>
+        <v>0.7655657573670531</v>
       </c>
       <c r="J8">
-        <v>0.02002777338416088</v>
+        <v>0.05143991552037517</v>
       </c>
       <c r="K8">
-        <v>0.007529338803293388</v>
+        <v>-0.02431359563090366</v>
       </c>
       <c r="L8">
-        <v>0.009452754166527542</v>
+        <v>-0.03136750327550669</v>
       </c>
       <c r="M8">
-        <v>0.007529338803293388</v>
+        <v>-0.02431359563090366</v>
       </c>
       <c r="N8">
-        <v>0.007529338803293388</v>
+        <v>-0.02431359563090366</v>
+      </c>
+      <c r="O8">
+        <v>-0.02431359563090366</v>
       </c>
       <c r="P8">
-        <v>-0.001200415608004156</v>
+        <v>-0.001732024709169184</v>
       </c>
       <c r="Q8">
-        <v>0.006866025224660252</v>
+        <v>-0.02567942628244935</v>
       </c>
       <c r="R8">
-        <v>0.006866025224660252</v>
+        <v>-0.02567942628244935</v>
       </c>
       <c r="S8">
-        <v>0.006866025224660252</v>
+        <v>-0.02567942628244935</v>
       </c>
       <c r="T8">
-        <v>0.006866025224660252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>-0.02567942628244935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0.419143404519434</v>
+        <v>0.3517720151571139</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.01535026284844699</v>
       </c>
       <c r="E9">
-        <v>0.01303179046631791</v>
+        <v>-0.0096440993813559</v>
       </c>
       <c r="F9">
-        <v>-0.009711525577115255</v>
+        <v>0.01126577580315365</v>
       </c>
       <c r="G9">
-        <v>0.004967295588735939</v>
-      </c>
-      <c r="H9">
-        <v>-0.008839021368343648</v>
+        <v>-0.001547448414989505</v>
       </c>
       <c r="I9">
-        <v>-0.003058155630581557</v>
+        <v>0.007350563338764673</v>
       </c>
       <c r="J9">
-        <v>0.01486113975025092</v>
+        <v>0.0184563784126717</v>
       </c>
       <c r="K9">
-        <v>-0.007457293814572939</v>
+        <v>0.01142699851519456</v>
       </c>
       <c r="L9">
-        <v>-0.005454277542542775</v>
+        <v>0.006633293986514879</v>
       </c>
       <c r="M9">
-        <v>-0.007457293814572939</v>
+        <v>0.01142699851519456</v>
       </c>
       <c r="N9">
-        <v>-0.007457293814572939</v>
+        <v>0.01142699851519456</v>
+      </c>
+      <c r="O9">
+        <v>0.01142699851519456</v>
       </c>
       <c r="P9">
-        <v>-0.009865227146652271</v>
+        <v>0.01057922430334529</v>
       </c>
       <c r="Q9">
-        <v>-0.006116637193166371</v>
+        <v>0.01034689062444984</v>
       </c>
       <c r="R9">
-        <v>-0.006116637193166371</v>
+        <v>0.01034689062444984</v>
       </c>
       <c r="S9">
-        <v>-0.006116637193166371</v>
+        <v>0.01034689062444984</v>
       </c>
       <c r="T9">
-        <v>-0.006116637193166371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>0.01034689062444984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.2401250230572502</v>
+        <v>0.1895372719837115</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.01815773540254239</v>
       </c>
       <c r="E10">
-        <v>0.005791776777917768</v>
+        <v>-0.005073641166518502</v>
       </c>
       <c r="F10">
-        <v>-0.002691877622918776</v>
+        <v>-0.01102156666015544</v>
       </c>
       <c r="G10">
-        <v>-0.003370697471358302</v>
-      </c>
-      <c r="H10">
-        <v>-0.003629205427148279</v>
+        <v>0.00778410017767545</v>
       </c>
       <c r="I10">
-        <v>-0.01393972138339722</v>
+        <v>0.02886093904083886</v>
       </c>
       <c r="J10">
-        <v>0.006128737671274012</v>
+        <v>0.01805984049017446</v>
       </c>
       <c r="K10">
-        <v>-0.004993557145935571</v>
+        <v>0.008998659503520854</v>
       </c>
       <c r="L10">
-        <v>-0.003327444405274444</v>
+        <v>0.006304940144750945</v>
       </c>
       <c r="M10">
-        <v>-0.004993557145935571</v>
+        <v>0.008998659503520854</v>
       </c>
       <c r="N10">
-        <v>-0.004993557145935571</v>
+        <v>0.008998659503520854</v>
+      </c>
+      <c r="O10">
+        <v>0.008998659503520854</v>
       </c>
       <c r="P10">
-        <v>-0.004532762769327628</v>
+        <v>0.003395596685045997</v>
       </c>
       <c r="Q10">
-        <v>-0.004357006963570069</v>
+        <v>0.007356312472268505</v>
       </c>
       <c r="R10">
-        <v>-0.004357006963570069</v>
+        <v>0.007356312472268505</v>
       </c>
       <c r="S10">
-        <v>-0.004357006963570069</v>
+        <v>0.007356312472268505</v>
       </c>
       <c r="T10">
-        <v>-0.004357006963570069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>0.007356312472268505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>0.4077820358498204</v>
+        <v>0.3528158450032319</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>0.000403421279768486</v>
       </c>
       <c r="E11">
-        <v>-0.02484148866841489</v>
+        <v>0.003505837759620032</v>
       </c>
       <c r="F11">
-        <v>0.02239294805592948</v>
+        <v>-0.0005083985547224896</v>
       </c>
       <c r="G11">
-        <v>-0.01514729061005789</v>
-      </c>
-      <c r="H11">
-        <v>0.01738479005958609</v>
+        <v>0.01584356040465026</v>
       </c>
       <c r="I11">
-        <v>0.006136639501366395</v>
+        <v>0.000346502700113766</v>
       </c>
       <c r="J11">
-        <v>0.002143400616784977</v>
+        <v>-0.002621871568339462</v>
       </c>
       <c r="K11">
-        <v>0.0212472199524722</v>
+        <v>-0.006347614206212614</v>
       </c>
       <c r="L11">
-        <v>0.01887816088478161</v>
+        <v>-0.006403161612578844</v>
       </c>
       <c r="M11">
-        <v>0.0212472199524722</v>
+        <v>-0.006347614206212614</v>
       </c>
       <c r="N11">
-        <v>0.0212472199524722</v>
+        <v>-0.006347614206212614</v>
+      </c>
+      <c r="O11">
+        <v>-0.006347614206212614</v>
       </c>
       <c r="P11">
-        <v>0.02419779744197798</v>
+        <v>-0.004295826121654482</v>
       </c>
       <c r="Q11">
-        <v>0.02236415919164159</v>
+        <v>-0.009237446725161422</v>
       </c>
       <c r="R11">
-        <v>0.02236415919164159</v>
+        <v>-0.009237446725161422</v>
       </c>
       <c r="S11">
-        <v>0.02236415919164159</v>
+        <v>-0.009237446725161422</v>
       </c>
       <c r="T11">
-        <v>0.02236415919164159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>-0.009237446725161422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0.01038310089183101</v>
+        <v>0.007702153356159468</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>0.008548618659811651</v>
       </c>
       <c r="E12">
-        <v>-0.003064210170642101</v>
+        <v>-0.000517551314515021</v>
       </c>
       <c r="F12">
-        <v>0.007724410493244105</v>
+        <v>-0.006083020861257771</v>
       </c>
       <c r="G12">
-        <v>-0.006705771818521097</v>
-      </c>
-      <c r="H12">
-        <v>0.01381971686343526</v>
+        <v>0.002308324314763407</v>
       </c>
       <c r="I12">
-        <v>0.007141406495414065</v>
+        <v>0.00319683745222273</v>
       </c>
       <c r="J12">
-        <v>0.002766907589703223</v>
+        <v>0.03764786722047655</v>
       </c>
       <c r="K12">
-        <v>0.003045104838451049</v>
+        <v>0.009185556863855374</v>
       </c>
       <c r="L12">
-        <v>0.0006306251583062516</v>
+        <v>0.01524214394344813</v>
       </c>
       <c r="M12">
-        <v>0.003045104838451049</v>
+        <v>0.009185556863855374</v>
       </c>
       <c r="N12">
-        <v>0.003045104838451049</v>
+        <v>0.009185556863855374</v>
+      </c>
+      <c r="O12">
+        <v>0.009185556863855374</v>
       </c>
       <c r="P12">
-        <v>0.005841194254411942</v>
+        <v>0.0007771012168726721</v>
       </c>
       <c r="Q12">
-        <v>0.004359984115599841</v>
+        <v>0.01106524155322985</v>
       </c>
       <c r="R12">
-        <v>0.004359984115599841</v>
+        <v>0.01106524155322985</v>
       </c>
       <c r="S12">
-        <v>0.004359984115599841</v>
+        <v>0.01106524155322985</v>
       </c>
       <c r="T12">
-        <v>0.004359984115599841</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>0.01106524155322985</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>-0.004419541388195413</v>
+        <v>0.003958935613654372</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.01271501902448467</v>
       </c>
       <c r="E13">
-        <v>0.00347291899072919</v>
+        <v>-0.0006489719389149551</v>
       </c>
       <c r="F13">
-        <v>-0.004403259440032595</v>
+        <v>0.01114719025253461</v>
       </c>
       <c r="G13">
-        <v>-0.0004745838060378506</v>
-      </c>
-      <c r="H13">
-        <v>-0.002842079391730493</v>
+        <v>-0.01520781879915097</v>
       </c>
       <c r="I13">
-        <v>-0.01508489369484894</v>
+        <v>-0.01213342023934534</v>
       </c>
       <c r="J13">
-        <v>-0.01016261151754712</v>
+        <v>0.005168441358708605</v>
       </c>
       <c r="K13">
-        <v>0.009359070669590708</v>
+        <v>-0.002819969089385089</v>
       </c>
       <c r="L13">
-        <v>0.01231703598317036</v>
+        <v>-0.002323781973925847</v>
       </c>
       <c r="M13">
-        <v>0.009359070669590708</v>
+        <v>-0.002819969089385089</v>
       </c>
       <c r="N13">
-        <v>0.009359070669590708</v>
+        <v>-0.002819969089385089</v>
+      </c>
+      <c r="O13">
+        <v>-0.002819969089385089</v>
       </c>
       <c r="P13">
-        <v>-0.002969745785697458</v>
+        <v>0.00172341701482731</v>
       </c>
       <c r="Q13">
-        <v>0.006816276464162764</v>
+        <v>-0.001273568152666073</v>
       </c>
       <c r="R13">
-        <v>0.006816276464162764</v>
+        <v>-0.001273568152666073</v>
       </c>
       <c r="S13">
-        <v>0.006816276464162764</v>
+        <v>-0.001273568152666073</v>
       </c>
       <c r="T13">
-        <v>0.006816276464162764</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>-0.001273568152666073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>-0.3312197097721971</v>
+        <v>-0.2715822400944184</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.009000769601596745</v>
       </c>
       <c r="E14">
-        <v>-0.002400472140004722</v>
+        <v>0.005368700233513555</v>
       </c>
       <c r="F14">
-        <v>0.004272194406721943</v>
+        <v>-0.002190612740692957</v>
       </c>
       <c r="G14">
-        <v>-0.01203988235538997</v>
-      </c>
-      <c r="H14">
-        <v>0.007133804224429359</v>
+        <v>0.004761290675297259</v>
       </c>
       <c r="I14">
-        <v>-0.01266864313868643</v>
+        <v>-0.0007672492043064536</v>
       </c>
       <c r="J14">
-        <v>0.009405154887705281</v>
+        <v>-0.007132909787239535</v>
       </c>
       <c r="K14">
-        <v>0.006599021597990216</v>
+        <v>-0.0123027372940435</v>
       </c>
       <c r="L14">
-        <v>0.007503159099031591</v>
+        <v>-0.0100026327164991</v>
       </c>
       <c r="M14">
-        <v>0.006599021597990216</v>
+        <v>-0.0123027372940435</v>
       </c>
       <c r="N14">
-        <v>0.006599021597990216</v>
+        <v>-0.0123027372940435</v>
+      </c>
+      <c r="O14">
+        <v>-0.0123027372940435</v>
       </c>
       <c r="P14">
-        <v>0.004945165633451656</v>
+        <v>-0.00733684525716535</v>
       </c>
       <c r="Q14">
-        <v>0.005964751931647519</v>
+        <v>-0.01249568012083479</v>
       </c>
       <c r="R14">
-        <v>0.005964751931647519</v>
+        <v>-0.01249568012083479</v>
       </c>
       <c r="S14">
-        <v>0.005964751931647519</v>
+        <v>-0.01249568012083479</v>
       </c>
       <c r="T14">
-        <v>0.005964751931647519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>-0.01249568012083479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>0.03507580799075808</v>
+        <v>-0.01340333209881041</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01710548224305688</v>
       </c>
       <c r="E15">
-        <v>0.00839761597197616</v>
+        <v>-0.0242261405395524</v>
       </c>
       <c r="F15">
-        <v>-0.00719958697199587</v>
+        <v>0.01879262291220919</v>
       </c>
       <c r="G15">
-        <v>0.001030095506532836</v>
-      </c>
-      <c r="H15">
-        <v>-0.004532357257057191</v>
+        <v>-0.003895154759230428</v>
       </c>
       <c r="I15">
-        <v>-0.004317260443172604</v>
+        <v>-0.0218873578052607</v>
       </c>
       <c r="J15">
-        <v>0.005687035985038385</v>
+        <v>0.0003500916194551682</v>
       </c>
       <c r="K15">
-        <v>-0.0102098698500987</v>
+        <v>0.02763217972722</v>
       </c>
       <c r="L15">
-        <v>-0.01005191381251914</v>
+        <v>0.02001719556161874</v>
       </c>
       <c r="M15">
-        <v>-0.0102098698500987</v>
+        <v>0.02763217972722</v>
       </c>
       <c r="N15">
-        <v>-0.0102098698500987</v>
+        <v>0.02763217972722</v>
+      </c>
+      <c r="O15">
+        <v>0.02763217972722</v>
       </c>
       <c r="P15">
-        <v>-0.006731838727318387</v>
+        <v>0.02465964739345506</v>
       </c>
       <c r="Q15">
-        <v>-0.009075950934759509</v>
+        <v>0.02575993433028082</v>
       </c>
       <c r="R15">
-        <v>-0.009075950934759509</v>
+        <v>0.02575993433028082</v>
       </c>
       <c r="S15">
-        <v>-0.009075950934759509</v>
+        <v>0.02575993433028082</v>
       </c>
       <c r="T15">
-        <v>-0.009075950934759509</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>0.02575993433028082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>-0.02518835637588356</v>
+        <v>0.01037168831557774</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.005598280269293187</v>
       </c>
       <c r="E16">
-        <v>-0.02430813553508136</v>
+        <v>0.01276912840232066</v>
       </c>
       <c r="F16">
-        <v>0.02025461559454616</v>
+        <v>0.001078894034427226</v>
       </c>
       <c r="G16">
-        <v>-0.02368977454336421</v>
-      </c>
-      <c r="H16">
-        <v>0.01718985870105886</v>
+        <v>-0.002565716458977599</v>
       </c>
       <c r="I16">
-        <v>0.003502917719029177</v>
+        <v>-0.006769797874556574</v>
       </c>
       <c r="J16">
-        <v>0.00244314712780276</v>
+        <v>0.001731164695873287</v>
       </c>
       <c r="K16">
-        <v>0.01520184636801847</v>
+        <v>-0.01342432085933518</v>
       </c>
       <c r="L16">
-        <v>0.01437756644377567</v>
+        <v>-0.00677068556194387</v>
       </c>
       <c r="M16">
-        <v>0.01520184636801847</v>
+        <v>-0.01342432085933518</v>
       </c>
       <c r="N16">
-        <v>0.01520184636801847</v>
+        <v>-0.01342432085933518</v>
+      </c>
+      <c r="O16">
+        <v>-0.01342432085933518</v>
       </c>
       <c r="P16">
-        <v>0.02170513717305137</v>
+        <v>-0.01111696798729983</v>
       </c>
       <c r="Q16">
-        <v>0.01619298284992983</v>
+        <v>-0.009724707130829652</v>
       </c>
       <c r="R16">
-        <v>0.01619298284992983</v>
+        <v>-0.009724707130829652</v>
       </c>
       <c r="S16">
-        <v>0.01619298284992983</v>
+        <v>-0.009724707130829652</v>
       </c>
       <c r="T16">
-        <v>0.01619298284992983</v>
+        <v>-0.009724707130829652</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>0.00867052201470522</v>
+        <v>0.004979555185704158</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.01383708887745763</v>
       </c>
       <c r="E17">
-        <v>0.01352256459922565</v>
+        <v>0.005603409017152026</v>
       </c>
       <c r="F17">
-        <v>-0.01184940215849402</v>
+        <v>0.001692920026113627</v>
       </c>
       <c r="G17">
-        <v>0.0152519695467133</v>
-      </c>
-      <c r="H17">
-        <v>-0.01650080966174063</v>
+        <v>0.00934956287615233</v>
       </c>
       <c r="I17">
-        <v>0.0260342602283426</v>
+        <v>0.04934536627456558</v>
       </c>
       <c r="J17">
-        <v>-0.0006340501133057803</v>
+        <v>0.01116007263278456</v>
       </c>
       <c r="K17">
-        <v>-0.01283949876839499</v>
+        <v>-0.01048717560413087</v>
       </c>
       <c r="L17">
-        <v>-0.01520575394005754</v>
+        <v>-0.0176106675435054</v>
       </c>
       <c r="M17">
-        <v>-0.01283949876839499</v>
+        <v>-0.01048717560413087</v>
       </c>
       <c r="N17">
-        <v>-0.01283949876839499</v>
+        <v>-0.01048717560413087</v>
+      </c>
+      <c r="O17">
+        <v>-0.01048717560413087</v>
       </c>
       <c r="P17">
-        <v>-0.01365277456052775</v>
+        <v>-0.0064793026986721</v>
       </c>
       <c r="Q17">
-        <v>-0.01302274858622749</v>
+        <v>-0.01512595331867588</v>
       </c>
       <c r="R17">
-        <v>-0.01302274858622749</v>
+        <v>-0.01512595331867588</v>
       </c>
       <c r="S17">
-        <v>-0.01302274858622749</v>
+        <v>-0.01512595331867588</v>
       </c>
       <c r="T17">
-        <v>-0.01302274858622749</v>
+        <v>-0.01512595331867588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>-0.07687690088476902</v>
+        <v>-0.07410730919234348</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.003730389643368242</v>
       </c>
       <c r="E18">
-        <v>-0.001017638830176389</v>
+        <v>-0.005923757785741111</v>
       </c>
       <c r="F18">
-        <v>0.001175537915755379</v>
+        <v>-0.0002944495307963367</v>
       </c>
       <c r="G18">
-        <v>0.002913417751364564</v>
-      </c>
-      <c r="H18">
-        <v>0.003023926239776076</v>
+        <v>-0.002295878867250959</v>
       </c>
       <c r="I18">
-        <v>-0.009374719041747191</v>
+        <v>0.004303526784404025</v>
       </c>
       <c r="J18">
-        <v>0.004265720988795108</v>
+        <v>0.002349040081813593</v>
       </c>
       <c r="K18">
-        <v>-0.0002457226344572264</v>
+        <v>0.006309442813986114</v>
       </c>
       <c r="L18">
-        <v>-7.857048078570481E-06</v>
+        <v>-0.003041764468625056</v>
       </c>
       <c r="M18">
-        <v>-0.0002457226344572264</v>
+        <v>0.006309442813986114</v>
       </c>
       <c r="N18">
-        <v>-0.0002457226344572264</v>
+        <v>0.006309442813986114</v>
+      </c>
+      <c r="O18">
+        <v>0.006309442813986114</v>
       </c>
       <c r="P18">
-        <v>0.0003108653431086534</v>
+        <v>0.005088696680820645</v>
       </c>
       <c r="Q18">
-        <v>-0.001560643587606436</v>
+        <v>0.001846696322044359</v>
       </c>
       <c r="R18">
-        <v>-0.001560643587606436</v>
+        <v>0.001846696322044359</v>
       </c>
       <c r="S18">
-        <v>-0.001560643587606436</v>
+        <v>0.001846696322044359</v>
       </c>
       <c r="T18">
-        <v>-0.001560643587606436</v>
+        <v>0.001846696322044359</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>-0.05943600099036001</v>
+        <v>-0.07397281546228604</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02858381196249282</v>
       </c>
       <c r="E19">
-        <v>0.001978879219788792</v>
+        <v>-6.113883541884514E-05</v>
       </c>
       <c r="F19">
-        <v>-0.002099348348993483</v>
+        <v>0.0007416992948388383</v>
       </c>
       <c r="G19">
-        <v>0.007776852269023261</v>
-      </c>
-      <c r="H19">
-        <v>-0.008713269529352356</v>
+        <v>-0.0004337669425515629</v>
       </c>
       <c r="I19">
-        <v>-0.0005378911253789112</v>
+        <v>-0.01704378898304966</v>
       </c>
       <c r="J19">
-        <v>0.002853907094901064</v>
+        <v>-0.002605601883923483</v>
       </c>
       <c r="K19">
-        <v>-0.007505382519053825</v>
+        <v>0.009186453940186563</v>
       </c>
       <c r="L19">
-        <v>-0.007606243120062432</v>
+        <v>0.0111913274989349</v>
       </c>
       <c r="M19">
-        <v>-0.007505382519053825</v>
+        <v>0.009186453940186563</v>
       </c>
       <c r="N19">
-        <v>-0.007505382519053825</v>
+        <v>0.009186453940186563</v>
+      </c>
+      <c r="O19">
+        <v>0.009186453940186563</v>
       </c>
       <c r="P19">
-        <v>-0.004854292872542928</v>
+        <v>0.0003317589285550165</v>
       </c>
       <c r="Q19">
-        <v>-0.008232984754329847</v>
+        <v>0.009188635155786665</v>
       </c>
       <c r="R19">
-        <v>-0.008232984754329847</v>
+        <v>0.009188635155786665</v>
       </c>
       <c r="S19">
-        <v>-0.008232984754329847</v>
+        <v>0.009188635155786665</v>
       </c>
       <c r="T19">
-        <v>-0.008232984754329847</v>
+        <v>0.009188635155786665</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>-0.06494507572945075</v>
+        <v>-0.06126838671941922</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.005790646436092472</v>
       </c>
       <c r="E20">
-        <v>0.004332451171324512</v>
+        <v>0.005230645619808748</v>
       </c>
       <c r="F20">
-        <v>-0.006145454125454542</v>
+        <v>-0.008104555980224906</v>
       </c>
       <c r="G20">
-        <v>0.002950508157208127</v>
-      </c>
-      <c r="H20">
-        <v>-0.006774207105835658</v>
+        <v>0.003206598019456056</v>
       </c>
       <c r="I20">
-        <v>0.127587699927877</v>
+        <v>0.1404646310121458</v>
       </c>
       <c r="J20">
-        <v>-0.0002629390056648491</v>
+        <v>0.005425403830293802</v>
       </c>
       <c r="K20">
-        <v>-0.007071102142711022</v>
+        <v>-0.01819554718331473</v>
       </c>
       <c r="L20">
-        <v>-0.006560207813602079</v>
+        <v>-0.02047943374627227</v>
       </c>
       <c r="M20">
-        <v>-0.007071102142711022</v>
+        <v>-0.01819554718331473</v>
       </c>
       <c r="N20">
-        <v>-0.007071102142711022</v>
+        <v>-0.01819554718331473</v>
+      </c>
+      <c r="O20">
+        <v>-0.01819554718331473</v>
       </c>
       <c r="P20">
-        <v>-0.006434546320345464</v>
+        <v>-0.007005962331978563</v>
       </c>
       <c r="Q20">
-        <v>-0.006070743576707436</v>
+        <v>-0.02042002003242356</v>
       </c>
       <c r="R20">
-        <v>-0.006070743576707436</v>
+        <v>-0.02042002003242356</v>
       </c>
       <c r="S20">
-        <v>-0.006070743576707436</v>
+        <v>-0.02042002003242356</v>
       </c>
       <c r="T20">
-        <v>-0.006070743576707436</v>
+        <v>-0.02042002003242356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>0.07896046718160467</v>
+        <v>0.03830401681156752</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>0.001001324636615509</v>
       </c>
       <c r="E21">
-        <v>0.01629097156290971</v>
+        <v>-0.021667128859536</v>
       </c>
       <c r="F21">
-        <v>0.08590427799104278</v>
+        <v>0.09856422070304745</v>
       </c>
       <c r="G21">
-        <v>-0.06231582921714774</v>
-      </c>
-      <c r="H21">
-        <v>0.04312906220308543</v>
+        <v>-0.0685832560356734</v>
       </c>
       <c r="I21">
-        <v>0.004524996621249966</v>
+        <v>-0.0308443998760849</v>
       </c>
       <c r="J21">
-        <v>-0.002689267838849419</v>
+        <v>-0.001489584340496094</v>
       </c>
       <c r="K21">
-        <v>0.006507308453073084</v>
+        <v>0.0004819848922229613</v>
       </c>
       <c r="L21">
-        <v>0.01341707325817073</v>
+        <v>-0.01479930120063779</v>
       </c>
       <c r="M21">
-        <v>0.006507308453073084</v>
+        <v>0.0004819848922229613</v>
       </c>
       <c r="N21">
-        <v>0.006507308453073084</v>
+        <v>0.0004819848922229613</v>
+      </c>
+      <c r="O21">
+        <v>0.0004819848922229613</v>
       </c>
       <c r="P21">
-        <v>0.03629715720297157</v>
+        <v>0.03687354182082151</v>
       </c>
       <c r="Q21">
-        <v>0.02499488666194887</v>
+        <v>0.005722607472067123</v>
       </c>
       <c r="R21">
-        <v>0.02499488666194887</v>
+        <v>0.005722607472067123</v>
       </c>
       <c r="S21">
-        <v>0.02499488666194887</v>
+        <v>0.005722607472067123</v>
       </c>
       <c r="T21">
-        <v>0.02499488666194887</v>
+        <v>0.005722607472067123</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>0.01615367557753675</v>
+        <v>0.009751777005991818</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.01538136368038071</v>
       </c>
       <c r="E22">
-        <v>-0.009066102198661021</v>
+        <v>0.001456956134416879</v>
       </c>
       <c r="F22">
-        <v>0.05251236184512362</v>
+        <v>0.0102091446834528</v>
       </c>
       <c r="G22">
-        <v>-0.04183146516002161</v>
-      </c>
-      <c r="H22">
-        <v>0.07592974897298212</v>
+        <v>-0.02120595994146403</v>
       </c>
       <c r="I22">
-        <v>0.01876660493566605</v>
+        <v>-0.006413355352896569</v>
       </c>
       <c r="J22">
-        <v>-0.01245567836583338</v>
+        <v>-0.007193296139149487</v>
       </c>
       <c r="K22">
-        <v>0.008131102881311029</v>
+        <v>-0.01798229040771206</v>
       </c>
       <c r="L22">
-        <v>0.04025650461056504</v>
+        <v>-0.01175342458323114</v>
       </c>
       <c r="M22">
-        <v>0.008131102881311029</v>
+        <v>-0.01798229040771206</v>
       </c>
       <c r="N22">
-        <v>0.008131102881311029</v>
+        <v>-0.01798229040771206</v>
+      </c>
+      <c r="O22">
+        <v>-0.01798229040771206</v>
       </c>
       <c r="P22">
-        <v>0.02975922546959225</v>
+        <v>0.0001504815217788397</v>
       </c>
       <c r="Q22">
-        <v>0.0316263399642634</v>
+        <v>-0.01007964938867419</v>
       </c>
       <c r="R22">
-        <v>0.0316263399642634</v>
+        <v>-0.01007964938867419</v>
       </c>
       <c r="S22">
-        <v>0.0316263399642634</v>
+        <v>-0.01007964938867419</v>
       </c>
       <c r="T22">
-        <v>0.0316263399642634</v>
+        <v>-0.01007964938867419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23">
-        <v>0.07973499415734994</v>
+        <v>0.02479952519103288</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.01591038169716821</v>
       </c>
       <c r="E23">
-        <v>0.006487729576877296</v>
+        <v>-0.0131206853944779</v>
       </c>
       <c r="F23">
-        <v>0.1070571851905719</v>
+        <v>0.1032383983426128</v>
       </c>
       <c r="G23">
-        <v>-0.08476629796588871</v>
-      </c>
-      <c r="H23">
-        <v>0.06602042132014924</v>
+        <v>-0.08286292715000611</v>
       </c>
       <c r="I23">
-        <v>-0.01131781775317818</v>
+        <v>-0.03401739623643457</v>
       </c>
       <c r="J23">
-        <v>-0.001623965411692097</v>
+        <v>-0.0008631261926373618</v>
       </c>
       <c r="K23">
-        <v>0.03225896465858965</v>
+        <v>-0.02608461450184602</v>
       </c>
       <c r="L23">
-        <v>0.04000373666803737</v>
+        <v>-0.03864104952480989</v>
       </c>
       <c r="M23">
-        <v>0.03225896465858965</v>
+        <v>-0.02608461450184602</v>
       </c>
       <c r="N23">
-        <v>0.03225896465858965</v>
+        <v>-0.02608461450184602</v>
+      </c>
+      <c r="O23">
+        <v>-0.02608461450184602</v>
       </c>
       <c r="P23">
-        <v>0.05443217630832176</v>
+        <v>0.02712421944243717</v>
       </c>
       <c r="Q23">
-        <v>0.05173589134935891</v>
+        <v>-0.01817192999539887</v>
       </c>
       <c r="R23">
-        <v>0.05173589134935891</v>
+        <v>-0.01817192999539887</v>
       </c>
       <c r="S23">
-        <v>0.05173589134935891</v>
+        <v>-0.01817192999539887</v>
       </c>
       <c r="T23">
-        <v>0.05173589134935891</v>
+        <v>-0.01817192999539887</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>0.005704899213048992</v>
+        <v>0.000202156629622209</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>-0.0007698344127494625</v>
       </c>
       <c r="E24">
-        <v>0.003917721747177218</v>
+        <v>0.002891874331086741</v>
       </c>
       <c r="F24">
-        <v>0.01069882213098822</v>
+        <v>0.002970453234106984</v>
       </c>
       <c r="G24">
-        <v>-0.009388544054666954</v>
-      </c>
-      <c r="H24">
-        <v>0.01560591741517136</v>
+        <v>0.00799028409791017</v>
       </c>
       <c r="I24">
-        <v>-0.007211436684114367</v>
+        <v>0.001358809807946288</v>
       </c>
       <c r="J24">
-        <v>0.01878000605429669</v>
+        <v>0.003726915775580427</v>
       </c>
       <c r="K24">
-        <v>0.001677507796775078</v>
+        <v>-0.0170093651803262</v>
       </c>
       <c r="L24">
-        <v>0.01102724793827248</v>
+        <v>-0.01902932343361817</v>
       </c>
       <c r="M24">
-        <v>0.001677507796775078</v>
+        <v>-0.0170093651803262</v>
       </c>
       <c r="N24">
-        <v>0.001677507796775078</v>
+        <v>-0.0170093651803262</v>
+      </c>
+      <c r="O24">
+        <v>-0.0170093651803262</v>
       </c>
       <c r="P24">
-        <v>0.005034323894343239</v>
+        <v>-0.004339728853100674</v>
       </c>
       <c r="Q24">
-        <v>0.007990489219904893</v>
+        <v>-0.01669443627646895</v>
       </c>
       <c r="R24">
-        <v>0.007990489219904893</v>
+        <v>-0.01669443627646895</v>
       </c>
       <c r="S24">
-        <v>0.007990489219904893</v>
+        <v>-0.01669443627646895</v>
       </c>
       <c r="T24">
-        <v>0.007990489219904893</v>
+        <v>-0.01669443627646895</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>0.05174770741347708</v>
+        <v>0.0003503488288184146</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.01763426801015928</v>
       </c>
       <c r="E25">
-        <v>-0.01277431300374313</v>
+        <v>-0.01668285997690538</v>
       </c>
       <c r="F25">
-        <v>0.132591795989918</v>
+        <v>0.1138707228166473</v>
       </c>
       <c r="G25">
-        <v>-0.09675014586735359</v>
-      </c>
-      <c r="H25">
-        <v>0.1088786634888712</v>
+        <v>-0.06787517535965232</v>
       </c>
       <c r="I25">
-        <v>-0.004194172505941725</v>
+        <v>-0.03008263110264993</v>
       </c>
       <c r="J25">
-        <v>-0.006271392554517579</v>
+        <v>-0.003838567343489139</v>
       </c>
       <c r="K25">
-        <v>0.0551114694471147</v>
+        <v>0.001558669156738183</v>
       </c>
       <c r="L25">
-        <v>0.06211207580112076</v>
+        <v>-0.05217155835596243</v>
       </c>
       <c r="M25">
-        <v>0.0551114694471147</v>
+        <v>0.001558669156738183</v>
       </c>
       <c r="N25">
-        <v>0.0551114694471147</v>
+        <v>0.001558669156738183</v>
+      </c>
+      <c r="O25">
+        <v>0.001558669156738183</v>
       </c>
       <c r="P25">
-        <v>0.06924493558444936</v>
+        <v>0.0287171913888442</v>
       </c>
       <c r="Q25">
-        <v>0.06981020480610205</v>
+        <v>-0.0168569401173555</v>
       </c>
       <c r="R25">
-        <v>0.06981020480610205</v>
+        <v>-0.0168569401173555</v>
       </c>
       <c r="S25">
-        <v>0.06981020480610205</v>
+        <v>-0.0168569401173555</v>
       </c>
       <c r="T25">
-        <v>0.06981020480610205</v>
+        <v>-0.0168569401173555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26">
-        <v>0.1627434393074344</v>
+        <v>0.0633639845997821</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.005427923843603072</v>
       </c>
       <c r="E26">
-        <v>0.0001538745495387455</v>
+        <v>-0.03707291690875176</v>
       </c>
       <c r="F26">
-        <v>0.241182495311825</v>
+        <v>0.2338345500414556</v>
       </c>
       <c r="G26">
-        <v>-0.1780739071132003</v>
-      </c>
-      <c r="H26">
-        <v>0.186092954738233</v>
+        <v>-0.1674792610919398</v>
       </c>
       <c r="I26">
-        <v>-0.006961472085614721</v>
+        <v>-0.0445963697804625</v>
       </c>
       <c r="J26">
-        <v>-0.008445366364426336</v>
+        <v>-0.005570587252970034</v>
       </c>
       <c r="K26">
-        <v>0.03289875536898755</v>
+        <v>-0.06370074834213658</v>
       </c>
       <c r="L26">
-        <v>0.09187541214675413</v>
+        <v>-0.08221999569991732</v>
       </c>
       <c r="M26">
-        <v>0.03289875536898755</v>
+        <v>-0.06370074834213658</v>
       </c>
       <c r="N26">
-        <v>0.03289875536898755</v>
+        <v>-0.06370074834213658</v>
+      </c>
+      <c r="O26">
+        <v>-0.06370074834213658</v>
       </c>
       <c r="P26">
-        <v>0.1173285093932851</v>
+        <v>0.06318494954106291</v>
       </c>
       <c r="Q26">
-        <v>0.1012445314124453</v>
+        <v>-0.0420866568218811</v>
       </c>
       <c r="R26">
-        <v>0.1012445314124453</v>
+        <v>-0.0420866568218811</v>
       </c>
       <c r="S26">
-        <v>0.1012445314124453</v>
+        <v>-0.0420866568218811</v>
       </c>
       <c r="T26">
-        <v>0.1012445314124453</v>
+        <v>-0.0420866568218811</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>0.1493412349014124</v>
+        <v>0.2208872923005366</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.03018140109344433</v>
       </c>
       <c r="E27">
-        <v>0.004707876359078764</v>
+        <v>0.03013626194240913</v>
       </c>
       <c r="F27">
-        <v>-0.000399575103995751</v>
+        <v>0.5079859753178179</v>
       </c>
       <c r="G27">
-        <v>0.1498498179894717</v>
-      </c>
-      <c r="H27">
-        <v>-0.2088135811234551</v>
+        <v>-0.0240122460907255</v>
       </c>
       <c r="I27">
-        <v>-0.234361895799619</v>
+        <v>-0.1531608860385218</v>
       </c>
       <c r="J27">
-        <v>0.04518968218703716</v>
+        <v>0.06117321078346358</v>
       </c>
       <c r="K27">
-        <v>-0.2320941715249417</v>
+        <v>-0.241157114923604</v>
       </c>
       <c r="L27">
-        <v>-0.2762764647627647</v>
+        <v>-0.3178911645373606</v>
       </c>
       <c r="M27">
-        <v>-0.2320941715249417</v>
+        <v>-0.241157114923604</v>
       </c>
       <c r="N27">
-        <v>-0.2320941715249417</v>
+        <v>-0.241157114923604</v>
+      </c>
+      <c r="O27">
+        <v>-0.241157114923604</v>
       </c>
       <c r="P27">
-        <v>-0.106781904539819</v>
+        <v>-0.01549961185494923</v>
       </c>
       <c r="Q27">
-        <v>-0.2468799541647995</v>
+        <v>-0.2630675972207726</v>
       </c>
       <c r="R27">
-        <v>-0.2468799541647995</v>
+        <v>-0.2630675972207726</v>
       </c>
       <c r="S27">
-        <v>-0.2468799541647995</v>
+        <v>-0.2630675972207726</v>
       </c>
       <c r="T27">
-        <v>-0.2468799541647995</v>
+        <v>-0.2630675972207726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>0.03272734635927346</v>
+        <v>0.03871741773392681</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.005573846332677219</v>
       </c>
       <c r="E28">
-        <v>-0.001845756654457566</v>
+        <v>0.002798300122229951</v>
       </c>
       <c r="F28">
-        <v>0.001214162844141629</v>
+        <v>-0.01368480253240717</v>
       </c>
       <c r="G28">
-        <v>-0.003331658829393323</v>
-      </c>
-      <c r="H28">
-        <v>0.004813043936944708</v>
+        <v>-0.009750227323544693</v>
       </c>
       <c r="I28">
-        <v>-0.06243418783234189</v>
+        <v>-0.05376289510601749</v>
       </c>
       <c r="J28">
-        <v>-0.000868002709905176</v>
+        <v>0.009674363482207982</v>
       </c>
       <c r="K28">
-        <v>0.00667963803079638</v>
+        <v>0.003197397450565102</v>
       </c>
       <c r="L28">
-        <v>0.008076772916767729</v>
+        <v>0.009715962179069925</v>
       </c>
       <c r="M28">
-        <v>0.00667963803079638</v>
+        <v>0.003197397450565102</v>
       </c>
       <c r="N28">
-        <v>0.00667963803079638</v>
+        <v>0.003197397450565102</v>
+      </c>
+      <c r="O28">
+        <v>0.003197397450565102</v>
       </c>
       <c r="P28">
-        <v>0.002037806504378065</v>
+        <v>-0.003168568325766902</v>
       </c>
       <c r="Q28">
-        <v>0.006521981357219813</v>
+        <v>0.006643298666289402</v>
       </c>
       <c r="R28">
-        <v>0.006521981357219813</v>
+        <v>0.006643298666289402</v>
       </c>
       <c r="S28">
-        <v>0.006521981357219813</v>
+        <v>0.006643298666289402</v>
       </c>
       <c r="T28">
-        <v>0.006521981357219813</v>
+        <v>0.006643298666289402</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>-0.01958501281585013</v>
+        <v>-0.02881667538646699</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.008179930928496556</v>
       </c>
       <c r="E29">
-        <v>-0.03707233396672334</v>
+        <v>-0.03554187324401097</v>
       </c>
       <c r="F29">
-        <v>0.004569700653697006</v>
+        <v>0.04988217884354154</v>
       </c>
       <c r="G29">
-        <v>0.02109259153260063</v>
-      </c>
-      <c r="H29">
-        <v>-0.01393162740881344</v>
+        <v>0.01933983700032153</v>
       </c>
       <c r="I29">
-        <v>0.006285379778853798</v>
+        <v>0.01351558887531651</v>
       </c>
       <c r="J29">
-        <v>-0.004506578919648323</v>
+        <v>-0.0112403914453409</v>
       </c>
       <c r="K29">
-        <v>-0.006482425912824259</v>
+        <v>0.00662230916061035</v>
       </c>
       <c r="L29">
-        <v>-0.004548560949485609</v>
+        <v>0.009921627501733914</v>
       </c>
       <c r="M29">
-        <v>-0.006482425912824259</v>
+        <v>0.00662230916061035</v>
       </c>
       <c r="N29">
-        <v>-0.006482425912824259</v>
+        <v>0.00662230916061035</v>
+      </c>
+      <c r="O29">
+        <v>0.00662230916061035</v>
       </c>
       <c r="P29">
-        <v>0.007857276618572766</v>
+        <v>0.03302859543756146</v>
       </c>
       <c r="Q29">
-        <v>-0.005693502200935022</v>
+        <v>0.01580555574814482</v>
       </c>
       <c r="R29">
-        <v>-0.005693502200935022</v>
+        <v>0.01580555574814482</v>
       </c>
       <c r="S29">
-        <v>-0.005693502200935022</v>
+        <v>0.01580555574814482</v>
       </c>
       <c r="T29">
-        <v>-0.005693502200935022</v>
+        <v>0.01580555574814482</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>-0.001733226641332267</v>
+        <v>0.02590362445636528</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.00836090231531419</v>
       </c>
       <c r="E30">
-        <v>0.008416397220163973</v>
+        <v>0.01100051885360574</v>
       </c>
       <c r="F30">
-        <v>-0.01412517233725172</v>
+        <v>-0.001567019802660608</v>
       </c>
       <c r="G30">
-        <v>0.02404587580056417</v>
-      </c>
-      <c r="H30">
-        <v>-0.02255238051832662</v>
+        <v>-0.0194442369297416</v>
       </c>
       <c r="I30">
-        <v>0.007151238791512388</v>
+        <v>0.01407169590282801</v>
       </c>
       <c r="J30">
-        <v>0.004457878639858247</v>
+        <v>-0.006992198348573902</v>
       </c>
       <c r="K30">
-        <v>-0.01120097212000972</v>
+        <v>-0.01339689104485098</v>
       </c>
       <c r="L30">
-        <v>-0.01433324605133246</v>
+        <v>0.002029655333380889</v>
       </c>
       <c r="M30">
-        <v>-0.01120097212000972</v>
+        <v>-0.01339689104485098</v>
       </c>
       <c r="N30">
-        <v>-0.01120097212000972</v>
+        <v>-0.01339689104485098</v>
+      </c>
+      <c r="O30">
+        <v>-0.01339689104485098</v>
       </c>
       <c r="P30">
-        <v>-0.01294148398541484</v>
+        <v>-0.01072705048276055</v>
       </c>
       <c r="Q30">
-        <v>-0.01242709180027092</v>
+        <v>-0.004020680915236313</v>
       </c>
       <c r="R30">
-        <v>-0.01242709180027092</v>
+        <v>-0.004020680915236313</v>
       </c>
       <c r="S30">
-        <v>-0.01242709180027092</v>
+        <v>-0.004020680915236313</v>
       </c>
       <c r="T30">
-        <v>-0.01242709180027092</v>
+        <v>-0.004020680915236313</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>0.001987496803874968</v>
+        <v>-0.00269776882517371</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>0.004950741202440869</v>
       </c>
       <c r="E31">
-        <v>-0.005168275359682753</v>
+        <v>0.004700911927047288</v>
       </c>
       <c r="F31">
-        <v>0.008949519533495195</v>
+        <v>0.004875798175394431</v>
       </c>
       <c r="G31">
-        <v>-0.01114692956574408</v>
-      </c>
-      <c r="H31">
-        <v>0.001870256436540514</v>
+        <v>0.01600025210178729</v>
       </c>
       <c r="I31">
-        <v>-0.01387973592679736</v>
+        <v>0.01275176597979495</v>
       </c>
       <c r="J31">
-        <v>-0.004607734585366501</v>
+        <v>0.009786697522050943</v>
       </c>
       <c r="K31">
-        <v>0.008373656375736562</v>
+        <v>0.01009558609261834</v>
       </c>
       <c r="L31">
-        <v>0.00721285206012852</v>
+        <v>0.01673571403803991</v>
       </c>
       <c r="M31">
-        <v>0.008373656375736562</v>
+        <v>0.01009558609261834</v>
       </c>
       <c r="N31">
-        <v>0.008373656375736562</v>
+        <v>0.01009558609261834</v>
+      </c>
+      <c r="O31">
+        <v>0.01009558609261834</v>
       </c>
       <c r="P31">
-        <v>0.008288078086880781</v>
+        <v>-0.002605204866679722</v>
       </c>
       <c r="Q31">
-        <v>0.009141758203417581</v>
+        <v>0.01126727684192956</v>
       </c>
       <c r="R31">
-        <v>0.009141758203417581</v>
+        <v>0.01126727684192956</v>
       </c>
       <c r="S31">
-        <v>0.009141758203417581</v>
+        <v>0.01126727684192956</v>
       </c>
       <c r="T31">
-        <v>0.009141758203417581</v>
+        <v>0.01126727684192956</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>-0.01250178192501782</v>
+        <v>-0.01174105377037109</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>-0.004603384644943991</v>
       </c>
       <c r="E32">
-        <v>0.001189006343890063</v>
+        <v>-0.006756989715748176</v>
       </c>
       <c r="F32">
-        <v>0.001025268478252685</v>
+        <v>-0.001005698483579243</v>
       </c>
       <c r="G32">
-        <v>0.002026746816804728</v>
-      </c>
-      <c r="H32">
-        <v>0.005417485238705358</v>
+        <v>-0.00703600266034503</v>
       </c>
       <c r="I32">
-        <v>0.00314957901149579</v>
+        <v>-0.009540781415946276</v>
       </c>
       <c r="J32">
-        <v>0.01672217994865718</v>
+        <v>0.01029959543393172</v>
       </c>
       <c r="K32">
-        <v>-0.001046222326462223</v>
+        <v>0.0115239047559171</v>
       </c>
       <c r="L32">
-        <v>0.0001663882816638828</v>
+        <v>0.005756519681670056</v>
       </c>
       <c r="M32">
-        <v>-0.001046222326462223</v>
+        <v>0.0115239047559171</v>
       </c>
       <c r="N32">
-        <v>-0.001046222326462223</v>
+        <v>0.0115239047559171</v>
+      </c>
+      <c r="O32">
+        <v>0.0115239047559171</v>
       </c>
       <c r="P32">
-        <v>-0.0009589769135897692</v>
+        <v>0.007447867551483561</v>
       </c>
       <c r="Q32">
-        <v>-0.001291495740914957</v>
+        <v>0.00964853188686433</v>
       </c>
       <c r="R32">
-        <v>-0.001291495740914957</v>
+        <v>0.00964853188686433</v>
       </c>
       <c r="S32">
-        <v>-0.001291495740914957</v>
+        <v>0.00964853188686433</v>
       </c>
       <c r="T32">
-        <v>-0.001291495740914957</v>
+        <v>0.00964853188686433</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>0.4534754398547544</v>
+        <v>0.6217335668148876</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>4.701577737297016E-05</v>
       </c>
       <c r="E33">
-        <v>0.9904184582681845</v>
+        <v>0.9914318919194874</v>
       </c>
       <c r="F33">
-        <v>-0.9430101446741014</v>
+        <v>-0.684129616843152</v>
       </c>
       <c r="G33">
-        <v>0.8539141624043722</v>
-      </c>
-      <c r="H33">
-        <v>-0.8725359250246671</v>
+        <v>0.2552385057306705</v>
       </c>
       <c r="I33">
-        <v>0.08215122068951221</v>
+        <v>0.278034852499517</v>
       </c>
       <c r="J33">
-        <v>-0.0187261445983169</v>
+        <v>-0.005448018131126937</v>
       </c>
       <c r="K33">
-        <v>-0.8569977295939772</v>
+        <v>-0.7783926561497859</v>
       </c>
       <c r="L33">
-        <v>-0.7601273662012736</v>
+        <v>-0.2719867583903137</v>
       </c>
       <c r="M33">
-        <v>-0.8569977295939772</v>
+        <v>-0.7783926561497859</v>
       </c>
       <c r="N33">
-        <v>-0.8569977295939772</v>
+        <v>-0.7783926561497859</v>
+      </c>
+      <c r="O33">
+        <v>-0.7783926561497859</v>
       </c>
       <c r="P33">
-        <v>-0.9752497683804976</v>
+        <v>-0.9868722511092917</v>
       </c>
       <c r="Q33">
-        <v>-0.8744074834520748</v>
+        <v>-0.6662782570761934</v>
       </c>
       <c r="R33">
-        <v>-0.8744074834520748</v>
+        <v>-0.6662782570761934</v>
       </c>
       <c r="S33">
-        <v>-0.8744074834520748</v>
+        <v>-0.6662782570761934</v>
       </c>
       <c r="T33">
-        <v>-0.8744074834520748</v>
+        <v>-0.6662782570761934</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>0.02761448709614487</v>
+        <v>0.03124700291684472</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.004635078202395938</v>
       </c>
       <c r="E34">
-        <v>0.07377046087770461</v>
+        <v>0.05039640307401522</v>
       </c>
       <c r="F34">
-        <v>-0.07199097735590977</v>
+        <v>-0.04921838018249371</v>
       </c>
       <c r="G34">
-        <v>0.06025967573390023</v>
-      </c>
-      <c r="H34">
-        <v>-0.1041843843032352</v>
+        <v>-0.0009396080383763251</v>
       </c>
       <c r="I34">
-        <v>-0.0008400414084004141</v>
+        <v>0.0244080178849402</v>
       </c>
       <c r="J34">
-        <v>-0.005355394852848251</v>
+        <v>0.01431988758411302</v>
       </c>
       <c r="K34">
-        <v>-0.1121461065534611</v>
+        <v>-0.1232729523923427</v>
       </c>
       <c r="L34">
-        <v>-0.04349983392299835</v>
+        <v>0.05446263416738602</v>
       </c>
       <c r="M34">
-        <v>-0.1121461065534611</v>
+        <v>-0.1232729523923427</v>
       </c>
       <c r="N34">
-        <v>-0.1121461065534611</v>
+        <v>-0.1232729523923427</v>
+      </c>
+      <c r="O34">
+        <v>-0.1232729523923427</v>
       </c>
       <c r="P34">
-        <v>-0.07426849597068495</v>
+        <v>-0.04836771116550236</v>
       </c>
       <c r="Q34">
-        <v>-0.07501746537017465</v>
+        <v>-0.02412912377754747</v>
       </c>
       <c r="R34">
-        <v>-0.07501746537017465</v>
+        <v>-0.02412912377754747</v>
       </c>
       <c r="S34">
-        <v>-0.07501746537017465</v>
+        <v>-0.02412912377754747</v>
       </c>
       <c r="T34">
-        <v>-0.07501746537017465</v>
+        <v>-0.02412912377754747</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35">
-        <v>-0.001594214271942143</v>
+        <v>-0.004581475171794356</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02453026020565898</v>
       </c>
       <c r="E35">
-        <v>0.004762941767629417</v>
+        <v>0.00492325010646891</v>
       </c>
       <c r="F35">
-        <v>-0.002861215264612152</v>
+        <v>-0.004556904573883956</v>
       </c>
       <c r="G35">
-        <v>0.009151914381243478</v>
-      </c>
-      <c r="H35">
-        <v>-0.005032183953451582</v>
+        <v>0.007933642149329304</v>
       </c>
       <c r="I35">
-        <v>0.006276569150765691</v>
+        <v>-0.01419849838888599</v>
       </c>
       <c r="J35">
-        <v>-0.005485177947618688</v>
+        <v>0.008226035787719259</v>
       </c>
       <c r="K35">
-        <v>0.006928688265286882</v>
+        <v>0.02618877177922726</v>
       </c>
       <c r="L35">
-        <v>0.007863896022638962</v>
+        <v>0.04238289183174403</v>
       </c>
       <c r="M35">
-        <v>0.006928688265286882</v>
+        <v>0.02618877177922726</v>
       </c>
       <c r="N35">
-        <v>0.006928688265286882</v>
+        <v>0.02618877177922726</v>
+      </c>
+      <c r="O35">
+        <v>0.02618877177922726</v>
       </c>
       <c r="P35">
-        <v>-0.003209429936094299</v>
+        <v>-0.0008445458458465587</v>
       </c>
       <c r="Q35">
-        <v>0.005846997046469971</v>
+        <v>0.03385796424934636</v>
       </c>
       <c r="R35">
-        <v>0.005846997046469971</v>
+        <v>0.03385796424934636</v>
       </c>
       <c r="S35">
-        <v>0.005846997046469971</v>
+        <v>0.03385796424934636</v>
       </c>
       <c r="T35">
-        <v>0.005846997046469971</v>
+        <v>0.03385796424934636</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>-0.002706204843062048</v>
+        <v>0.004359497736461394</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.01636017962058306</v>
       </c>
       <c r="E36">
-        <v>-0.0001123641371236414</v>
+        <v>0.008800500417952413</v>
       </c>
       <c r="F36">
-        <v>-0.004910283493102835</v>
+        <v>-0.004365314649198276</v>
       </c>
       <c r="G36">
-        <v>0.006476990707537191</v>
-      </c>
-      <c r="H36">
-        <v>0.0001881337626791635</v>
+        <v>0.005913481214073937</v>
       </c>
       <c r="I36">
-        <v>-0.001122188099221881</v>
+        <v>-0.009405216720355514</v>
       </c>
       <c r="J36">
-        <v>-0.01302230516266088</v>
+        <v>0.01168358923210696</v>
       </c>
       <c r="K36">
-        <v>0.2835483591154837</v>
+        <v>0.5026650150026039</v>
       </c>
       <c r="L36">
-        <v>0.3439152635831527</v>
+        <v>0.8515206972721178</v>
       </c>
       <c r="M36">
-        <v>0.2835483591154837</v>
+        <v>0.5026650150026039</v>
       </c>
       <c r="N36">
-        <v>0.2835483591154837</v>
+        <v>0.5026650150026039</v>
+      </c>
+      <c r="O36">
+        <v>0.5026650150026039</v>
       </c>
       <c r="P36">
-        <v>0.03717760361977604</v>
+        <v>0.05943474567914773</v>
       </c>
       <c r="Q36">
-        <v>0.2627301372833014</v>
+        <v>0.6457580331675029</v>
       </c>
       <c r="R36">
-        <v>0.2627301372833014</v>
+        <v>0.6457580331675029</v>
       </c>
       <c r="S36">
-        <v>0.2627301372833014</v>
+        <v>0.6457580331675029</v>
       </c>
       <c r="T36">
-        <v>0.2627301372833014</v>
+        <v>0.6457580331675029</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>0.01212245337722453</v>
+        <v>0.011662747891878</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>-0.002780626553084262</v>
       </c>
       <c r="E37">
-        <v>0.004815784356157844</v>
+        <v>0.01996289900102832</v>
       </c>
       <c r="F37">
-        <v>-0.002769898695698987</v>
+        <v>-0.00576028610867322</v>
       </c>
       <c r="G37">
-        <v>0.007785795130722779</v>
-      </c>
-      <c r="H37">
-        <v>-0.005893603081178732</v>
+        <v>0.01400109912223088</v>
       </c>
       <c r="I37">
-        <v>-0.009055401354554014</v>
+        <v>0.006451172260330337</v>
       </c>
       <c r="J37">
-        <v>-0.003559701748843959</v>
+        <v>0.001372063415592489</v>
       </c>
       <c r="K37">
-        <v>-0.00562490504024905</v>
+        <v>-0.02287215936112828</v>
       </c>
       <c r="L37">
-        <v>-0.005135664423356644</v>
+        <v>-0.01222296909499073</v>
       </c>
       <c r="M37">
-        <v>-0.00562490504024905</v>
+        <v>-0.02287215936112828</v>
       </c>
       <c r="N37">
-        <v>-0.00562490504024905</v>
+        <v>-0.02287215936112828</v>
+      </c>
+      <c r="O37">
+        <v>-0.02287215936112828</v>
       </c>
       <c r="P37">
-        <v>-0.003912609267126093</v>
+        <v>-0.01980412456788045</v>
       </c>
       <c r="Q37">
-        <v>-0.005101817355018174</v>
+        <v>-0.02115025515851446</v>
       </c>
       <c r="R37">
-        <v>-0.005101817355018174</v>
+        <v>-0.02115025515851446</v>
       </c>
       <c r="S37">
-        <v>-0.005101817355018174</v>
+        <v>-0.02115025515851446</v>
       </c>
       <c r="T37">
-        <v>-0.005101817355018174</v>
+        <v>-0.02115025515851446</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38">
-        <v>-0.008415419316154192</v>
+        <v>-0.002193418037903268</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.01575895907534349</v>
       </c>
       <c r="E38">
-        <v>0.002596821193968212</v>
+        <v>0.002994680345701784</v>
       </c>
       <c r="F38">
-        <v>0.001301335369013354</v>
+        <v>-0.004065155597299482</v>
       </c>
       <c r="G38">
-        <v>5.090819752179008E-05</v>
-      </c>
-      <c r="H38">
-        <v>0.005005806919413755</v>
+        <v>-0.01672443717127107</v>
       </c>
       <c r="I38">
-        <v>-0.0003488711434887115</v>
+        <v>0.02111374641412351</v>
       </c>
       <c r="J38">
-        <v>-0.009435800854831736</v>
+        <v>0.01489544978464545</v>
       </c>
       <c r="K38">
-        <v>0.04477463324774633</v>
+        <v>0.07517997016027311</v>
       </c>
       <c r="L38">
-        <v>0.05758726276787263</v>
+        <v>0.1163106450131101</v>
       </c>
       <c r="M38">
-        <v>0.04477463324774633</v>
+        <v>0.07517997016027311</v>
       </c>
       <c r="N38">
-        <v>0.04477463324774633</v>
+        <v>0.07517997016027311</v>
+      </c>
+      <c r="O38">
+        <v>0.07517997016027311</v>
       </c>
       <c r="P38">
-        <v>0.006758010823580107</v>
+        <v>0.006888152039869476</v>
       </c>
       <c r="Q38">
-        <v>0.04371177043711771</v>
+        <v>0.09224207342592214</v>
       </c>
       <c r="R38">
-        <v>0.04371177043711771</v>
+        <v>0.09224207342592214</v>
       </c>
       <c r="S38">
-        <v>0.04371177043711771</v>
+        <v>0.09224207342592214</v>
       </c>
       <c r="T38">
-        <v>0.04371177043711771</v>
+        <v>0.09224207342592214</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>0.01204082835640828</v>
+        <v>0.01872568987635584</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.01367952540942866</v>
       </c>
       <c r="E39">
-        <v>-0.02104702759847028</v>
+        <v>0.02295901925304912</v>
       </c>
       <c r="F39">
-        <v>0.01808542123285421</v>
+        <v>-0.01637236974843399</v>
       </c>
       <c r="G39">
-        <v>-0.009058060335164157</v>
-      </c>
-      <c r="H39">
-        <v>0.02073346231509487</v>
+        <v>0.00216132141159972</v>
       </c>
       <c r="I39">
-        <v>0.01180407921404079</v>
+        <v>0.02086327332543446</v>
       </c>
       <c r="J39">
-        <v>-0.0008426851569745788</v>
+        <v>0.009837094499144664</v>
       </c>
       <c r="K39">
-        <v>0.01633563721935637</v>
+        <v>-0.01184733181643747</v>
       </c>
       <c r="L39">
-        <v>0.01495747304957473</v>
+        <v>0.007988353403178048</v>
       </c>
       <c r="M39">
-        <v>0.01633563721935637</v>
+        <v>-0.01184733181643747</v>
       </c>
       <c r="N39">
-        <v>0.01633563721935637</v>
+        <v>-0.01184733181643747</v>
+      </c>
+      <c r="O39">
+        <v>-0.01184733181643747</v>
       </c>
       <c r="P39">
-        <v>0.01757306539973065</v>
+        <v>-0.02152363929917678</v>
       </c>
       <c r="Q39">
-        <v>0.01610804360908044</v>
+        <v>-0.004300866911502444</v>
       </c>
       <c r="R39">
-        <v>0.01610804360908044</v>
+        <v>-0.004300866911502444</v>
       </c>
       <c r="S39">
-        <v>0.01610804360908044</v>
+        <v>-0.004300866911502444</v>
       </c>
       <c r="T39">
-        <v>0.01610804360908044</v>
+        <v>-0.004300866911502444</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>-0.01041404049214041</v>
+        <v>0.001039403182619074</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.00801546485794888</v>
       </c>
       <c r="E40">
-        <v>-0.01688519692885197</v>
+        <v>0.007397361203220832</v>
       </c>
       <c r="F40">
-        <v>0.0128415895884159</v>
+        <v>-0.01143784700767254</v>
       </c>
       <c r="G40">
-        <v>-0.009117986909568691</v>
-      </c>
-      <c r="H40">
-        <v>0.008653281620050331</v>
+        <v>0.002350160822817546</v>
       </c>
       <c r="I40">
-        <v>-0.0001939194259391942</v>
+        <v>-0.01223120224498674</v>
       </c>
       <c r="J40">
-        <v>0.003373999582018104</v>
+        <v>-0.01003756460153126</v>
       </c>
       <c r="K40">
-        <v>0.007744841201448411</v>
+        <v>0.001366085434696139</v>
       </c>
       <c r="L40">
-        <v>0.004860654348606544</v>
+        <v>0.002176643661326914</v>
       </c>
       <c r="M40">
-        <v>0.007744841201448411</v>
+        <v>0.001366085434696139</v>
       </c>
       <c r="N40">
-        <v>0.007744841201448411</v>
+        <v>0.001366085434696139</v>
+      </c>
+      <c r="O40">
+        <v>0.001366085434696139</v>
       </c>
       <c r="P40">
-        <v>0.01446425180464252</v>
+        <v>-0.007912819766851533</v>
       </c>
       <c r="Q40">
-        <v>0.007951135699511357</v>
+        <v>0.001132002908518365</v>
       </c>
       <c r="R40">
-        <v>0.007951135699511357</v>
+        <v>0.001132002908518365</v>
       </c>
       <c r="S40">
-        <v>0.007951135699511357</v>
+        <v>0.001132002908518365</v>
       </c>
       <c r="T40">
-        <v>0.007951135699511357</v>
+        <v>0.001132002908518365</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>-0.02741940110219401</v>
+        <v>-0.01943246474402165</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.0001841143879463527</v>
       </c>
       <c r="E41">
-        <v>0.01071268804712688</v>
+        <v>0.0295686993899393</v>
       </c>
       <c r="F41">
-        <v>-0.006314681523146815</v>
+        <v>-0.003252448345733377</v>
       </c>
       <c r="G41">
-        <v>0.01123627568055813</v>
-      </c>
-      <c r="H41">
-        <v>-0.01443035381447681</v>
+        <v>0.01224922093978744</v>
       </c>
       <c r="I41">
-        <v>-0.01827537367475373</v>
+        <v>0.008720865273647382</v>
       </c>
       <c r="J41">
-        <v>0.00814096976923763</v>
+        <v>-0.003616064399084683</v>
       </c>
       <c r="K41">
-        <v>-0.01973567897335679</v>
+        <v>-0.03985989089461207</v>
       </c>
       <c r="L41">
-        <v>-0.01923703688437037</v>
+        <v>-0.03097889265234487</v>
       </c>
       <c r="M41">
-        <v>-0.01973567897335679</v>
+        <v>-0.03985989089461207</v>
       </c>
       <c r="N41">
-        <v>-0.01973567897335679</v>
+        <v>-0.03985989089461207</v>
+      </c>
+      <c r="O41">
+        <v>-0.03985989089461207</v>
       </c>
       <c r="P41">
-        <v>-0.009590915519909156</v>
+        <v>-0.03026838599244671</v>
       </c>
       <c r="Q41">
-        <v>-0.01700535462205355</v>
+        <v>-0.03961491692526379</v>
       </c>
       <c r="R41">
-        <v>-0.01700535462205355</v>
+        <v>-0.03961491692526379</v>
       </c>
       <c r="S41">
-        <v>-0.01700535462205355</v>
+        <v>-0.03961491692526379</v>
       </c>
       <c r="T41">
-        <v>-0.01700535462205355</v>
+        <v>-0.03961491692526379</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A18:A19"/>
